--- a/execdir/repoDetailsUI.xlsx
+++ b/execdir/repoDetailsUI.xlsx
@@ -89,18 +89,24 @@
     <t>VM to run the Django test suite. ARCHIVED Please use https://github.com/django/django-docker-box</t>
   </si>
   <si>
+    <t>djangosnippets.org</t>
+  </si>
+  <si>
+    <t>The code that powers djangosnippets.org, it allows users to post and share useful "snippets" of code.</t>
+  </si>
+  <si>
+    <t>channels_redis</t>
+  </si>
+  <si>
+    <t>Redis channel layer backend for Django Channels</t>
+  </si>
+  <si>
     <t>channels</t>
   </si>
   <si>
     <t>Developer-friendly asynchrony for Django</t>
   </si>
   <si>
-    <t>djangosnippets.org</t>
-  </si>
-  <si>
-    <t>The code that powers djangosnippets.org, it allows users to post and share useful "snippets" of code.</t>
-  </si>
-  <si>
     <t>djangoproject.com</t>
   </si>
   <si>
@@ -123,12 +129,6 @@
   </si>
   <si>
     <t>Django Channels HTTP/WebSocket server</t>
-  </si>
-  <si>
-    <t>channels_redis</t>
-  </si>
-  <si>
-    <t>Redis channel layer backend for Django Channels</t>
   </si>
 </sst>
 </file>
